--- a/data/program_list.xlsx
+++ b/data/program_list.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\vscode\ALD\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\red23\OneDrive\바탕 화면\ex1\ex1\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8C2178A-F05B-4596-AEB9-ABF29BDAEA87}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12A7632F-733C-4098-8CD4-6D10AE9EA9AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="37">
   <si>
     <t>Actuarial Science (UG)</t>
   </si>
@@ -58,9 +58,6 @@
   </si>
   <si>
     <t>FMHS (UG)</t>
-  </si>
-  <si>
-    <t>FMHS (UG) - Nursing</t>
   </si>
   <si>
     <t>FOSSLA (PG)</t>
@@ -465,22 +462,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:A38"/>
+  <dimension ref="A1:A37"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.45">
@@ -656,11 +653,6 @@
     <row r="37" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A37" t="s">
         <v>34</v>
-      </c>
-    </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A38" t="s">
-        <v>35</v>
       </c>
     </row>
   </sheetData>

--- a/data/program_list.xlsx
+++ b/data/program_list.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\red23\OneDrive\바탕 화면\ex1\ex1\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12A7632F-733C-4098-8CD4-6D10AE9EA9AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F51F8E0-CD93-4932-8430-47474A9CB2D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="38">
   <si>
     <t>Actuarial Science (UG)</t>
   </si>
@@ -55,9 +55,6 @@
   </si>
   <si>
     <t>FMHS (PG)</t>
-  </si>
-  <si>
-    <t>FMHS (UG)</t>
   </si>
   <si>
     <t>FOSSLA (PG)</t>
@@ -137,6 +134,14 @@
   </si>
   <si>
     <t>Programs</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FMHS (UG)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FMHS (UG) - Nursing</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -462,7 +467,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:A37"/>
+  <dimension ref="A1:A38"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
       <selection activeCell="A14" sqref="A14"/>
@@ -472,12 +477,12 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.45">
@@ -532,127 +537,132 @@
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A13" t="s">
-        <v>10</v>
+        <v>36</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A14" t="s">
-        <v>11</v>
+        <v>37</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A15" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A16" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A17" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A18" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A19" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A20" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A21" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A22" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A23" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A24" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A25" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A26" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A27" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A28" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A29" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A30" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A31" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A32" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A33" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A34" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A35" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A36" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A37" t="s">
-        <v>34</v>
+        <v>32</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A38" t="s">
+        <v>33</v>
       </c>
     </row>
   </sheetData>

--- a/data/program_list.xlsx
+++ b/data/program_list.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\red23\OneDrive\바탕 화면\ex1\ex1\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\venvs\mypjt3\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F51F8E0-CD93-4932-8430-47474A9CB2D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34D1A8E7-B83C-4E2D-ACB2-E813D68525EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="37">
   <si>
     <t>Actuarial Science (UG)</t>
   </si>
@@ -55,6 +55,9 @@
   </si>
   <si>
     <t>FMHS (PG)</t>
+  </si>
+  <si>
+    <t>FMHS (UG)</t>
   </si>
   <si>
     <t>FOSSLA (PG)</t>
@@ -134,14 +137,6 @@
   </si>
   <si>
     <t>Programs</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>FMHS (UG)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>FMHS (UG) - Nursing</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -467,9 +462,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:A38"/>
+  <dimension ref="A1:A37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
       <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
@@ -477,12 +472,12 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.45">
@@ -537,132 +532,127 @@
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A13" t="s">
-        <v>36</v>
+        <v>10</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A14" t="s">
-        <v>37</v>
+        <v>11</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A15" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A16" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A17" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A18" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A19" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A20" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A21" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A22" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A23" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A24" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A25" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A26" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A27" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A28" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A29" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A30" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A31" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A32" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A33" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A34" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A35" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A36" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A37" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A38" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
   </sheetData>
